--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2588,17 +2588,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.25" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.1640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.82421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.48046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.51953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2607,27 +2607,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.3828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.73046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="79.60546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.45703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="103.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="139.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="49.75" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="113.34765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="117.37109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1076,7 +1076,7 @@
     <t>info@domain.ch</t>
   </si>
   <si>
-    <t>50</t>
+    <t>255</t>
   </si>
   <si>
     <t>ContactPoint.value</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4955" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4955" uniqueCount="726">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -240,6 +240,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: eCH-Standards</t>
+  </si>
+  <si>
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
@@ -250,9 +253,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: eCH-Standards</t>
   </si>
   <si>
     <t/>
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a given and family name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}ch-lab-pract1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Practitioner-eu-lab')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a given and family name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -487,479 +487,496 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>PRD-7 (or XCN.1)</t>
+  </si>
+  <si>
+    <t>./id</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:GLN</t>
+  </si>
+  <si>
+    <t>GLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-gln-identifier}
+</t>
+  </si>
+  <si>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:oid:2.51.1.3"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:ZSR</t>
+  </si>
+  <si>
+    <t>ZSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-zsr-identifier}
+</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:oid:2.16.756.5.30.1.123.100.2.1.1"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t>Practitioner.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this practitioner's record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this practitioner's record is in active use.</t>
+  </si>
+  <si>
+    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>./statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Practitioner.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-humanname}
+</t>
+  </si>
+  <si>
+    <t>Name of a human - parts and usage</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
+    <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
+  </si>
+  <si>
+    <t>eCH-0011: nameData</t>
+  </si>
+  <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.name.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./NamePurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>eCH-0010: lastName</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>./FamilyName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family.extension:ech11name</t>
+  </si>
+  <si>
+    <t>ech11name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name}
+</t>
+  </si>
+  <si>
+    <t>Extension for eCH-0011 - namedatatype</t>
+  </si>
+  <si>
+    <t>eCH-0011: officialName, originalName, allianceName, nameOnForeignPassport, aliasName, otherName, declaredForeignName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>eCH-0010: firstName equivalent to callName of eCH-0011</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>./GivenNames</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given.id</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given.extension:ech11firstname</t>
+  </si>
+  <si>
+    <t>ech11firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname}
+</t>
+  </si>
+  <si>
+    <t>eCH-0011: Extension to define first name type</t>
+  </si>
+  <si>
+    <t>eCH-0011: officialFirstName, callName, allianceName, firstNameOnForeignPassport, declaredForeignFirstName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given.value</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix</t>
+  </si>
+  <si>
+    <t>For a salutation use a prefix without the iso21090-EN-qualifier extension. For academical titles and legal status use the http://hl7.org/fhir/ExtensionDefinition/iso21090-EN-qualifier with the codes AC, LS.</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>eCH-0010: mrMrs, title</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>./TitleCode</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix.id</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix.extension:salutationandtitle</t>
+  </si>
+  <si>
+    <t>salutationandtitle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-EN-qualifier}
+</t>
+  </si>
+  <si>
+    <t>For academical titles and legal status use the http://hl7.org/fhir/ExtensionDefinition/iso21090-EN-qualifier with the codes AC, LS.</t>
+  </si>
+  <si>
+    <t>A set of codes each of which specifies a certain subcategory of the name part in addition to the main name part type.</t>
+  </si>
+  <si>
+    <t>Used to indicate additional information about the name part and how it should be used.</t>
+  </si>
+  <si>
+    <t>ENXP.qualifier</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix.value</t>
+  </si>
+  <si>
+    <t>Practitioner.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>Practitioner.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner (that apply to all roles)</t>
+  </si>
+  <si>
+    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
+  </si>
+  <si>
+    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>PRD-7 (or XCN.1)</t>
-  </si>
-  <si>
-    <t>./id</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:GLN</t>
-  </si>
-  <si>
-    <t>GLN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-gln-identifier}
-</t>
-  </si>
-  <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier:ZSR</t>
-  </si>
-  <si>
-    <t>ZSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-zsr-identifier}
-</t>
-  </si>
-  <si>
-    <t>Practitioner.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this practitioner's record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this practitioner's record is in active use.</t>
-  </si>
-  <si>
-    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a practitioner record as not to be used because it was created in error.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>./statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Practitioner.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-humanname}
-</t>
-  </si>
-  <si>
-    <t>Name of a human - parts and usage</t>
-  </si>
-  <si>
-    <t>A human's name with the ability to identify parts and usage.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
-    <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
-  </si>
-  <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
-    <t>eCH-0011: nameData</t>
-  </si>
-  <si>
-    <t>Practitioner.name.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Practitioner.name.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.name.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>XPN.7, but often indicated by which field contains the name</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>./NamePurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.name.text</t>
-  </si>
-  <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>HumanName.text</t>
-  </si>
-  <si>
-    <t>implied by XPN.11</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>Practitioner.name.family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname
-</t>
-  </si>
-  <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>HumanName.family</t>
-  </si>
-  <si>
-    <t>XPN.1/FN.1</t>
-  </si>
-  <si>
-    <t>./part[partType = FAM]</t>
-  </si>
-  <si>
-    <t>./FamilyName</t>
-  </si>
-  <si>
-    <t>eCH-0010: lastName</t>
-  </si>
-  <si>
-    <t>Practitioner.name.family.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Practitioner.name.family.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Practitioner.name.family.extension:ech11name</t>
-  </si>
-  <si>
-    <t>ech11name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name}
-</t>
-  </si>
-  <si>
-    <t>Extension for eCH-0011 - namedatatype</t>
-  </si>
-  <si>
-    <t>eCH-0011: officialName, originalName, allianceName, nameOnForeignPassport, aliasName, otherName, declaredForeignName</t>
-  </si>
-  <si>
-    <t>Practitioner.name.family.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>Practitioner.name.given</t>
-  </si>
-  <si>
-    <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
-  </si>
-  <si>
-    <t>HumanName.given</t>
-  </si>
-  <si>
-    <t>XPN.2 + XPN.3</t>
-  </si>
-  <si>
-    <t>./part[partType = GIV]</t>
-  </si>
-  <si>
-    <t>./GivenNames</t>
-  </si>
-  <si>
-    <t>eCH-0010: firstName equivalent to callName of eCH-0011</t>
-  </si>
-  <si>
-    <t>Practitioner.name.given.id</t>
-  </si>
-  <si>
-    <t>Practitioner.name.given.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.name.given.extension:ech11firstname</t>
-  </si>
-  <si>
-    <t>ech11firstname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname}
-</t>
-  </si>
-  <si>
-    <t>eCH-0011: Extension to define first name type</t>
-  </si>
-  <si>
-    <t>eCH-0011: officialFirstName, callName, allianceName, firstNameOnForeignPassport, declaredForeignFirstName</t>
-  </si>
-  <si>
-    <t>Practitioner.name.given.value</t>
-  </si>
-  <si>
-    <t>Practitioner.name.prefix</t>
-  </si>
-  <si>
-    <t>For a salutation use a prefix without the iso21090-EN-qualifier extension. For academical titles and legal status use the http://hl7.org/fhir/ExtensionDefinition/iso21090-EN-qualifier with the codes AC, LS.</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>HumanName.prefix</t>
-  </si>
-  <si>
-    <t>XPN.5</t>
-  </si>
-  <si>
-    <t>./part[partType = PFX]</t>
-  </si>
-  <si>
-    <t>./TitleCode</t>
-  </si>
-  <si>
-    <t>eCH-0010: mrMrs, title</t>
-  </si>
-  <si>
-    <t>Practitioner.name.prefix.id</t>
-  </si>
-  <si>
-    <t>Practitioner.name.prefix.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.name.prefix.extension:salutationandtitle</t>
-  </si>
-  <si>
-    <t>salutationandtitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-EN-qualifier}
-</t>
-  </si>
-  <si>
-    <t>For academical titles and legal status use the http://hl7.org/fhir/ExtensionDefinition/iso21090-EN-qualifier with the codes AC, LS.</t>
-  </si>
-  <si>
-    <t>A set of codes each of which specifies a certain subcategory of the name part in addition to the main name part type.</t>
-  </si>
-  <si>
-    <t>Used to indicate additional information about the name part and how it should be used.</t>
-  </si>
-  <si>
-    <t>ENXP.qualifier</t>
-  </si>
-  <si>
-    <t>Practitioner.name.prefix.value</t>
-  </si>
-  <si>
-    <t>Practitioner.name.suffix</t>
-  </si>
-  <si>
-    <t>Parts that come after the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t>HumanName.suffix</t>
-  </si>
-  <si>
-    <t>XPN/4</t>
-  </si>
-  <si>
-    <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>Practitioner.name.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when name was/is in use</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.</t>
-  </si>
-  <si>
-    <t>Allows names to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>HumanName.period</t>
-  </si>
-  <si>
-    <t>XPN.13 + XPN.14</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner (that apply to all roles)</t>
-  </si>
-  <si>
-    <t>A contact detail for the practitioner, e.g. a telephone number or an email address.</t>
-  </si>
-  <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and to help with identification.  These typically will have home numbers, or mobile numbers that are not role specific.</t>
-  </si>
-  <si>
-    <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
+    <t>eCH-0046: Contact</t>
   </si>
   <si>
     <t>PRT-15, STF-10, ROL-12</t>
@@ -969,9 +986,6 @@
   </si>
   <si>
     <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>eCH-0046: Contact</t>
   </si>
   <si>
     <t>Practitioner.telecom:email</t>
@@ -994,6 +1008,9 @@
 ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
+    <t>eCH-0046: email</t>
+  </si>
+  <si>
     <t>XTN</t>
   </si>
   <si>
@@ -1001,9 +1018,6 @@
   </si>
   <si>
     <t>ContactPoint</t>
-  </si>
-  <si>
-    <t>eCH-0046: email</t>
   </si>
   <si>
     <t>Practitioner.telecom:email.id</t>
@@ -1043,6 +1057,9 @@
 </t>
   </si>
   <si>
+    <t>eCH-0046: emailType</t>
+  </si>
+  <si>
     <t>XTN.3</t>
   </si>
   <si>
@@ -1052,9 +1069,6 @@
     <t>./ContactPointType</t>
   </si>
   <si>
-    <t>eCH-0046: emailType</t>
-  </si>
-  <si>
     <t>Practitioner.telecom:email.value</t>
   </si>
   <si>
@@ -1082,6 +1096,9 @@
     <t>ContactPoint.value</t>
   </si>
   <si>
+    <t>eCH-0046: emailAddress</t>
+  </si>
+  <si>
     <t>XTN.1 (or XTN.12)</t>
   </si>
   <si>
@@ -1091,9 +1108,6 @@
     <t>./Value</t>
   </si>
   <si>
-    <t>eCH-0046: emailAddress</t>
-  </si>
-  <si>
     <t>Practitioner.telecom:email.use</t>
   </si>
   <si>
@@ -1121,13 +1135,13 @@
     <t>ContactPoint.use</t>
   </si>
   <si>
+    <t>eCH-0046: emailCategory/otherEmailCategory</t>
+  </si>
+  <si>
     <t>XTN.2 - but often indicated by field</t>
   </si>
   <si>
     <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>eCH-0046: emailCategory/otherEmailCategory</t>
   </si>
   <si>
     <t>Practitioner.telecom:email.use.id</t>
@@ -1248,15 +1262,15 @@
 </t>
   </si>
   <si>
+    <t>eCH-0046: dateFrom</t>
+  </si>
+  <si>
     <t>DR.1</t>
   </si>
   <si>
     <t>./low</t>
   </si>
   <si>
-    <t>eCH-0046: dateFrom</t>
-  </si>
-  <si>
     <t>Practitioner.telecom:email.period.end</t>
   </si>
   <si>
@@ -1278,13 +1292,13 @@
     <t>Period.end</t>
   </si>
   <si>
+    <t>eCH-0046: dateTo</t>
+  </si>
+  <si>
     <t>DR.2</t>
   </si>
   <si>
     <t>./high</t>
-  </si>
-  <si>
-    <t>eCH-0046: dateTo</t>
   </si>
   <si>
     <t>Practitioner.telecom:phone</t>
@@ -1415,6 +1429,9 @@
              (state.empty() or state.memberOf('http://fhir.ch/ig/ch-core/ValueSet/ech-7-cantonabbreviation')))}</t>
   </si>
   <si>
+    <t>eCH-0010: addressInformation</t>
+  </si>
+  <si>
     <t>XAD</t>
   </si>
   <si>
@@ -1422,9 +1439,6 @@
   </si>
   <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>eCH-0010: addressInformation</t>
   </si>
   <si>
     <t>Practitioner.address.id</t>
@@ -1703,10 +1717,10 @@
     <t>streetName.</t>
   </si>
   <si>
+    <t>eCH-0010: streetName</t>
+  </si>
+  <si>
     <t>ADXP[partType=STR]</t>
-  </si>
-  <si>
-    <t>eCH-0010: streetName</t>
   </si>
   <si>
     <t>Practitioner.address.line.extension:houseNumber</t>
@@ -1725,10 +1739,10 @@
     <t>The number of a building, house or lot alongside the street. Also known as "primary street number". This does not number the street but rather the building.</t>
   </si>
   <si>
+    <t>eCH-0010: houseNumber</t>
+  </si>
+  <si>
     <t>ADXP[partType=BNR]</t>
-  </si>
-  <si>
-    <t>eCH-0010: houseNumber</t>
   </si>
   <si>
     <t>Practitioner.address.line.extension:unitID</t>
@@ -1747,10 +1761,10 @@
     <t>The number or name of a specific unit contained within a building or complex, as assigned by that building or complex.</t>
   </si>
   <si>
+    <t>eCH-0010: dwellingNumber</t>
+  </si>
+  <si>
     <t>ADXP[partType=UNID]</t>
-  </si>
-  <si>
-    <t>eCH-0010: dwellingNumber</t>
   </si>
   <si>
     <t>Practitioner.address.line.extension:postOfficeBoxText</t>
@@ -1796,10 +1810,10 @@
     <t>A numbered box located in a post station.</t>
   </si>
   <si>
+    <t>eCH-0010: postOfficeBoxNumber</t>
+  </si>
+  <si>
     <t>ADXP[partType=POB]</t>
-  </si>
-  <si>
-    <t>eCH-0010: postOfficeBoxNumber</t>
   </si>
   <si>
     <t>Practitioner.address.line.value</t>
@@ -1824,6 +1838,9 @@
     <t>Address.city</t>
   </si>
   <si>
+    <t>eCH-0010: town</t>
+  </si>
+  <si>
     <t>XAD.3</t>
   </si>
   <si>
@@ -1831,9 +1848,6 @@
   </si>
   <si>
     <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>eCH-0010: town</t>
   </si>
   <si>
     <t>Practitioner.address.city.id</t>
@@ -1880,13 +1894,13 @@
     <t>Address.district</t>
   </si>
   <si>
+    <t>eCH-0010: locality</t>
+  </si>
+  <si>
     <t>XAD.9</t>
   </si>
   <si>
     <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>eCH-0010: locality</t>
   </si>
   <si>
     <t>Practitioner.address.state</t>
@@ -1942,6 +1956,9 @@
     <t>Address.postalCode</t>
   </si>
   <si>
+    <t>eCH-0010: swissZipCode, swissZipCodeAddOn, swissZipCodeId, foreignZipCode</t>
+  </si>
+  <si>
     <t>XAD.5</t>
   </si>
   <si>
@@ -1951,9 +1968,6 @@
     <t>./PostalIdentificationCode</t>
   </si>
   <si>
-    <t>eCH-0010: swissZipCode, swissZipCodeAddOn, swissZipCodeId, foreignZipCode</t>
-  </si>
-  <si>
     <t>Practitioner.address.country</t>
   </si>
   <si>
@@ -1969,6 +1983,9 @@
     <t>Address.country</t>
   </si>
   <si>
+    <t>eCH-0010: country</t>
+  </si>
+  <si>
     <t>XAD.6</t>
   </si>
   <si>
@@ -1976,9 +1993,6 @@
   </si>
   <si>
     <t>./Country</t>
-  </si>
-  <si>
-    <t>eCH-0010: country</t>
   </si>
   <si>
     <t>Practitioner.address.country.id</t>
@@ -2055,6 +2069,9 @@
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
+    <t>eCH-0011: sex. sexType, BFS-33, see ConceptMap http://fhir.ch/ig/ch-core/ConceptMap/sex-ech11-to-fhir</t>
+  </si>
+  <si>
     <t>STF-5</t>
   </si>
   <si>
@@ -2062,9 +2079,6 @@
   </si>
   <si>
     <t>./GenderCode</t>
-  </si>
-  <si>
-    <t>eCH-0011: sex. sexType, BFS-33, see ConceptMap http://fhir.ch/ig/ch-core/ConceptMap/sex-ech11-to-fhir</t>
   </si>
   <si>
     <t>Practitioner.birthDate</t>
@@ -2083,6 +2097,9 @@
     <t>Needed for identification.</t>
   </si>
   <si>
+    <t>eCH-0011: birthData, BFS-31</t>
+  </si>
+  <si>
     <t>STF-6</t>
   </si>
   <si>
@@ -2090,9 +2107,6 @@
   </si>
   <si>
     <t>(not represented in ServD)</t>
-  </si>
-  <si>
-    <t>eCH-0011: birthData, BFS-31</t>
   </si>
   <si>
     <t>Practitioner.photo</t>
@@ -2248,6 +2262,9 @@
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
   </si>
   <si>
+    <t>eCH-0011: languageOfCorrespondance: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
+  </si>
+  <si>
     <t>PID-15, NK1-20, LAN-2</t>
   </si>
   <si>
@@ -2255,9 +2272,6 @@
   </si>
   <si>
     <t>./Languages.LanguageSpokenCode</t>
-  </si>
-  <si>
-    <t>eCH-0011: languageOfCorrespondance: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
   </si>
 </sst>
 </file>
@@ -2623,11 +2637,11 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="117.37109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="117.37109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="50.953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2855,16 +2869,16 @@
         <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>79</v>
@@ -3441,10 +3455,10 @@
         <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -3558,10 +3572,10 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -3675,10 +3689,10 @@
         <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -3794,10 +3808,10 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3906,19 +3920,19 @@
         <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -3971,7 +3985,7 @@
         <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>79</v>
@@ -4019,13 +4033,13 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>164</v>
@@ -4034,7 +4048,7 @@
         <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
@@ -4042,13 +4056,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>146</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -4070,7 +4084,7 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>160</v>
@@ -4090,7 +4104,7 @@
         <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>79</v>
@@ -4138,13 +4152,13 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>164</v>
@@ -4153,7 +4167,7 @@
         <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -4161,10 +4175,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4187,70 +4201,70 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -4268,24 +4282,24 @@
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4308,19 +4322,19 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -4369,7 +4383,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4378,33 +4392,33 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4427,13 +4441,13 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4484,7 +4498,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4502,10 +4516,10 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4516,10 +4530,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4548,7 +4562,7 @@
         <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>138</v>
@@ -4589,10 +4603,10 @@
         <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>79</v>
@@ -4601,7 +4615,7 @@
         <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4619,10 +4633,10 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4633,10 +4647,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4662,16 +4676,16 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -4696,13 +4710,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -4720,7 +4734,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4735,16 +4749,16 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -4752,10 +4766,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4778,19 +4792,19 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4839,7 +4853,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4854,13 +4868,13 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4871,14 +4885,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4897,16 +4911,16 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4929,7 +4943,7 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>79</v>
@@ -4956,7 +4970,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4971,27 +4985,27 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5014,13 +5028,13 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5071,7 +5085,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5103,10 +5117,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5132,10 +5146,10 @@
         <v>135</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5174,7 +5188,7 @@
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
@@ -5184,7 +5198,7 @@
         <v>152</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5216,13 +5230,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
@@ -5244,13 +5258,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5301,7 +5315,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5310,13 +5324,13 @@
         <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -5328,15 +5342,15 @@
         <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5359,13 +5373,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5389,7 +5403,7 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>79</v>
@@ -5416,7 +5430,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5448,14 +5462,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5474,16 +5488,16 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5506,7 +5520,7 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>79</v>
@@ -5533,7 +5547,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5548,27 +5562,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5591,13 +5605,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5648,7 +5662,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5680,10 +5694,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5709,10 +5723,10 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5751,7 +5765,7 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
@@ -5761,7 +5775,7 @@
         <v>152</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5793,13 +5807,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>79</v>
@@ -5821,13 +5835,13 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5878,7 +5892,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5887,13 +5901,13 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
@@ -5905,15 +5919,15 @@
         <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5936,13 +5950,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5966,7 +5980,7 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="X29" t="s" s="2">
         <v>79</v>
@@ -5993,7 +6007,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -6025,10 +6039,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6051,13 +6065,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -6108,7 +6122,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6123,27 +6137,27 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6166,13 +6180,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6223,7 +6237,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6255,10 +6269,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6284,10 +6298,10 @@
         <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6326,7 +6340,7 @@
         <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -6336,7 +6350,7 @@
         <v>152</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6368,13 +6382,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>79</v>
@@ -6396,16 +6410,16 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6455,7 +6469,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6464,7 +6478,7 @@
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>140</v>
@@ -6473,10 +6487,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6487,10 +6501,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6513,13 +6527,13 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6543,7 +6557,7 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="X34" t="s" s="2">
         <v>79</v>
@@ -6570,7 +6584,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6602,10 +6616,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6628,13 +6642,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6685,7 +6699,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6700,13 +6714,13 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6717,10 +6731,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6743,17 +6757,17 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6802,7 +6816,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6817,16 +6831,16 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6834,10 +6848,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6860,19 +6874,19 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6909,7 +6923,7 @@
         <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>151</v>
+        <v>306</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
@@ -6919,7 +6933,7 @@
         <v>152</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6934,30 +6948,30 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>79</v>
@@ -6967,7 +6981,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>90</v>
@@ -6979,19 +6993,19 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -7040,7 +7054,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7049,33 +7063,33 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7098,13 +7112,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7155,7 +7169,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7173,10 +7187,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -7187,10 +7201,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7219,7 +7233,7 @@
         <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>138</v>
@@ -7260,10 +7274,10 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>79</v>
@@ -7272,7 +7286,7 @@
         <v>152</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7290,10 +7304,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7304,10 +7318,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7333,10 +7347,10 @@
         <v>109</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7345,7 +7359,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>79</v>
@@ -7363,13 +7377,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -7387,7 +7401,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7396,33 +7410,33 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7445,19 +7459,19 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7470,7 +7484,7 @@
         <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>79</v>
@@ -7479,7 +7493,7 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="X42" t="s" s="2">
         <v>79</v>
@@ -7506,7 +7520,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7521,27 +7535,27 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7567,16 +7581,16 @@
         <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7601,13 +7615,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -7625,7 +7639,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7640,27 +7654,27 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>357</v>
+        <v>212</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7683,13 +7697,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7740,7 +7754,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7772,10 +7786,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7801,10 +7815,10 @@
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7843,7 +7857,7 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
@@ -7853,7 +7867,7 @@
         <v>152</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7885,13 +7899,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>79</v>
@@ -7913,13 +7927,13 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7970,7 +7984,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7979,33 +7993,33 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AM46" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8028,13 +8042,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8085,7 +8099,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8117,10 +8131,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8143,16 +8157,16 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8202,7 +8216,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8217,13 +8231,13 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8234,10 +8248,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8260,13 +8274,13 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8317,7 +8331,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8332,27 +8346,27 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AL49" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AM49" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8375,13 +8389,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8432,7 +8446,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8450,10 +8464,10 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8464,10 +8478,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8496,7 +8510,7 @@
         <v>136</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>138</v>
@@ -8537,10 +8551,10 @@
         <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>79</v>
@@ -8549,7 +8563,7 @@
         <v>152</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8567,10 +8581,10 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8581,10 +8595,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8607,16 +8621,16 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8666,7 +8680,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8675,33 +8689,33 @@
         <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8724,23 +8738,23 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q53" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8785,7 +8799,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8794,36 +8808,36 @@
         <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>79</v>
@@ -8833,7 +8847,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>90</v>
@@ -8845,19 +8859,19 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8906,7 +8920,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8915,33 +8929,33 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8964,13 +8978,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9021,7 +9035,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9039,10 +9053,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -9053,10 +9067,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9085,7 +9099,7 @@
         <v>136</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>138</v>
@@ -9126,10 +9140,10 @@
         <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>79</v>
@@ -9138,7 +9152,7 @@
         <v>152</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9156,10 +9170,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -9170,10 +9184,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9199,10 +9213,10 @@
         <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9211,7 +9225,7 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>79</v>
@@ -9229,13 +9243,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -9253,7 +9267,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9262,33 +9276,33 @@
         <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9311,19 +9325,19 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9336,7 +9350,7 @@
         <v>79</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>79</v>
@@ -9345,7 +9359,7 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="X58" t="s" s="2">
         <v>79</v>
@@ -9372,7 +9386,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9387,27 +9401,27 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9433,16 +9447,16 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9467,13 +9481,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9491,7 +9505,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9506,27 +9520,27 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>357</v>
+        <v>212</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9549,13 +9563,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9606,7 +9620,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9638,10 +9652,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9667,10 +9681,10 @@
         <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9709,7 +9723,7 @@
         <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
@@ -9719,7 +9733,7 @@
         <v>152</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9751,13 +9765,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>79</v>
@@ -9779,13 +9793,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9836,7 +9850,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9845,33 +9859,33 @@
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9894,13 +9908,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9951,7 +9965,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9983,10 +9997,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10009,16 +10023,16 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10068,7 +10082,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10083,13 +10097,13 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -10100,10 +10114,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10126,13 +10140,13 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10183,7 +10197,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10198,27 +10212,27 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AM65" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10241,13 +10255,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10298,7 +10312,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10316,10 +10330,10 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10330,10 +10344,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10362,7 +10376,7 @@
         <v>136</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>138</v>
@@ -10403,10 +10417,10 @@
         <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>79</v>
@@ -10415,7 +10429,7 @@
         <v>152</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10433,10 +10447,10 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10447,10 +10461,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10473,16 +10487,16 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10532,7 +10546,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10541,33 +10555,33 @@
         <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10590,23 +10604,23 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q69" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>79</v>
@@ -10651,7 +10665,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10660,36 +10674,36 @@
         <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>79</v>
@@ -10711,19 +10725,19 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10772,7 +10786,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10781,33 +10795,33 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>314</v>
+        <v>445</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10830,19 +10844,19 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10891,7 +10905,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10900,33 +10914,33 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10949,13 +10963,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11006,7 +11020,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11024,10 +11038,10 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -11038,10 +11052,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11070,7 +11084,7 @@
         <v>136</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>138</v>
@@ -11111,10 +11125,10 @@
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>79</v>
@@ -11123,7 +11137,7 @@
         <v>152</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11141,10 +11155,10 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -11155,10 +11169,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11184,16 +11198,16 @@
         <v>109</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11206,7 +11220,7 @@
         <v>79</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>79</v>
@@ -11218,13 +11232,13 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -11242,7 +11256,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11257,16 +11271,16 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>210</v>
+        <v>468</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>466</v>
+        <v>212</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11274,10 +11288,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11303,13 +11317,13 @@
         <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11323,7 +11337,7 @@
         <v>79</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>79</v>
@@ -11335,13 +11349,13 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>
@@ -11359,7 +11373,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11374,13 +11388,13 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>210</v>
+        <v>478</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11391,10 +11405,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11417,19 +11431,19 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11442,7 +11456,7 @@
         <v>79</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>79</v>
@@ -11478,7 +11492,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11493,13 +11507,13 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>219</v>
+        <v>485</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11510,10 +11524,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11536,13 +11550,13 @@
         <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11557,7 +11571,7 @@
         <v>79</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>79</v>
@@ -11593,7 +11607,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11608,16 +11622,16 @@
         <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11625,10 +11639,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11651,13 +11665,13 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11708,7 +11722,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11740,10 +11754,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11769,10 +11783,10 @@
         <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11811,7 +11825,7 @@
         <v>79</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AC79" s="2"/>
       <c r="AD79" t="s" s="2">
@@ -11821,7 +11835,7 @@
         <v>152</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11853,13 +11867,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>79</v>
@@ -11881,13 +11895,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11938,7 +11952,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11947,13 +11961,13 @@
         <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
@@ -11965,15 +11979,15 @@
         <v>79</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11996,13 +12010,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12053,7 +12067,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12071,10 +12085,10 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -12085,10 +12099,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12114,10 +12128,10 @@
         <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12156,10 +12170,10 @@
         <v>79</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>79</v>
@@ -12168,7 +12182,7 @@
         <v>152</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12200,10 +12214,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12229,13 +12243,13 @@
         <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12243,7 +12257,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>79</v>
@@ -12285,7 +12299,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>89</v>
@@ -12303,10 +12317,10 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12317,10 +12331,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12346,10 +12360,10 @@
         <v>109</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12388,17 +12402,17 @@
         <v>79</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AC84" s="2"/>
       <c r="AD84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12416,10 +12430,10 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12430,13 +12444,13 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>79</v>
@@ -12461,10 +12475,10 @@
         <v>109</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12473,7 +12487,7 @@
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>79</v>
@@ -12491,13 +12505,13 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12515,7 +12529,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12533,10 +12547,10 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12547,13 +12561,13 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>79</v>
@@ -12575,13 +12589,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12632,7 +12646,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12641,13 +12655,13 @@
         <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>79</v>
@@ -12659,15 +12673,15 @@
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12690,13 +12704,13 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12747,7 +12761,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12765,10 +12779,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12779,10 +12793,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12808,10 +12822,10 @@
         <v>135</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12850,10 +12864,10 @@
         <v>79</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>79</v>
@@ -12862,7 +12876,7 @@
         <v>152</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12894,10 +12908,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12923,13 +12937,13 @@
         <v>103</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12937,7 +12951,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>79</v>
@@ -12979,7 +12993,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>89</v>
@@ -12997,10 +13011,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -13011,10 +13025,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13040,10 +13054,10 @@
         <v>109</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13082,17 +13096,17 @@
         <v>79</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AC90" s="2"/>
       <c r="AD90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13110,10 +13124,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13124,13 +13138,13 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>79</v>
@@ -13155,10 +13169,10 @@
         <v>109</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13167,31 +13181,31 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="S91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="Z91" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>79</v>
@@ -13209,7 +13223,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13227,10 +13241,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13241,13 +13255,13 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>79</v>
@@ -13269,13 +13283,13 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13326,7 +13340,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13335,13 +13349,13 @@
         <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>79</v>
@@ -13353,15 +13367,15 @@
         <v>79</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13384,13 +13398,13 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13441,7 +13455,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13459,10 +13473,10 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13473,10 +13487,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13502,10 +13516,10 @@
         <v>135</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13544,10 +13558,10 @@
         <v>79</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>79</v>
@@ -13556,7 +13570,7 @@
         <v>152</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13588,10 +13602,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13617,13 +13631,13 @@
         <v>103</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13631,7 +13645,7 @@
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>79</v>
@@ -13673,7 +13687,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>89</v>
@@ -13691,10 +13705,10 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13705,10 +13719,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13734,10 +13748,10 @@
         <v>109</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13776,17 +13790,17 @@
         <v>79</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AC96" s="2"/>
       <c r="AD96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13804,10 +13818,10 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13818,13 +13832,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>79</v>
@@ -13849,10 +13863,10 @@
         <v>109</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13861,7 +13875,7 @@
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>79</v>
@@ -13879,13 +13893,13 @@
         <v>79</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>79</v>
@@ -13903,7 +13917,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13921,10 +13935,10 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13935,13 +13949,13 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>79</v>
@@ -13963,13 +13977,13 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14020,7 +14034,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14029,36 +14043,36 @@
         <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>79</v>
@@ -14080,13 +14094,13 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14137,7 +14151,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14146,36 +14160,36 @@
         <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>79</v>
@@ -14197,13 +14211,13 @@
         <v>79</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14254,7 +14268,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14263,36 +14277,36 @@
         <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>79</v>
+        <v>562</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>79</v>
@@ -14314,13 +14328,13 @@
         <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14371,7 +14385,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14380,13 +14394,13 @@
         <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>79</v>
@@ -14398,15 +14412,15 @@
         <v>79</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>563</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14429,13 +14443,13 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14486,7 +14500,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14504,10 +14518,10 @@
         <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14518,10 +14532,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14547,10 +14561,10 @@
         <v>135</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14589,10 +14603,10 @@
         <v>79</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>79</v>
@@ -14601,7 +14615,7 @@
         <v>152</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14633,10 +14647,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14662,13 +14676,13 @@
         <v>103</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14676,7 +14690,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>79</v>
@@ -14718,7 +14732,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>89</v>
@@ -14736,10 +14750,10 @@
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14750,10 +14764,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14779,10 +14793,10 @@
         <v>109</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14821,17 +14835,17 @@
         <v>79</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AC105" s="2"/>
       <c r="AD105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14849,10 +14863,10 @@
         <v>79</v>
       </c>
       <c r="AL105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14863,13 +14877,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>79</v>
@@ -14894,10 +14908,10 @@
         <v>109</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14906,7 +14920,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>79</v>
@@ -14924,13 +14938,13 @@
         <v>79</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>79</v>
@@ -14948,7 +14962,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14966,10 +14980,10 @@
         <v>79</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14980,13 +14994,13 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>79</v>
@@ -15008,13 +15022,13 @@
         <v>79</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15065,7 +15079,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15074,33 +15088,33 @@
         <v>81</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>575</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15123,13 +15137,13 @@
         <v>79</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15153,7 +15167,7 @@
         <v>79</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="X108" t="s" s="2">
         <v>79</v>
@@ -15180,7 +15194,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15212,14 +15226,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15238,13 +15252,13 @@
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15259,7 +15273,7 @@
         <v>79</v>
       </c>
       <c r="T109" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="U109" t="s" s="2">
         <v>79</v>
@@ -15295,7 +15309,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15310,27 +15324,27 @@
         <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>79</v>
+        <v>589</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>586</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15353,13 +15367,13 @@
         <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15410,7 +15424,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15442,10 +15456,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15471,10 +15485,10 @@
         <v>135</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15513,7 +15527,7 @@
         <v>79</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC111" s="2"/>
       <c r="AD111" t="s" s="2">
@@ -15523,7 +15537,7 @@
         <v>152</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15555,13 +15569,13 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>79</v>
@@ -15583,13 +15597,13 @@
         <v>79</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15640,7 +15654,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15649,7 +15663,7 @@
         <v>81</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>140</v>
@@ -15672,10 +15686,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15698,13 +15712,13 @@
         <v>79</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15728,7 +15742,7 @@
         <v>79</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>79</v>
@@ -15755,7 +15769,7 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15787,14 +15801,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15813,16 +15827,16 @@
         <v>90</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15836,7 +15850,7 @@
         <v>79</v>
       </c>
       <c r="T114" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="U114" t="s" s="2">
         <v>79</v>
@@ -15872,7 +15886,7 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -15887,31 +15901,31 @@
         <v>101</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -15930,13 +15944,13 @@
         <v>90</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15963,13 +15977,13 @@
         <v>79</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>79</v>
@@ -15987,7 +16001,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16002,31 +16016,31 @@
         <v>101</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16045,13 +16059,13 @@
         <v>90</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16066,7 +16080,7 @@
         <v>79</v>
       </c>
       <c r="T116" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="U116" t="s" s="2">
         <v>79</v>
@@ -16102,7 +16116,7 @@
         <v>79</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16117,27 +16131,27 @@
         <v>101</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>79</v>
+        <v>627</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>624</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16160,16 +16174,16 @@
         <v>90</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16219,7 +16233,7 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16234,27 +16248,27 @@
         <v>101</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>79</v>
+        <v>636</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>633</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16277,13 +16291,13 @@
         <v>79</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -16334,7 +16348,7 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16366,10 +16380,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16395,10 +16409,10 @@
         <v>135</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16437,7 +16451,7 @@
         <v>79</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AC119" s="2"/>
       <c r="AD119" t="s" s="2">
@@ -16447,7 +16461,7 @@
         <v>152</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16479,13 +16493,13 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>79</v>
@@ -16507,13 +16521,13 @@
         <v>79</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16564,7 +16578,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16573,19 +16587,19 @@
         <v>81</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>79</v>
+        <v>645</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16596,10 +16610,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16622,13 +16636,13 @@
         <v>79</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -16652,7 +16666,7 @@
         <v>79</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="X121" t="s" s="2">
         <v>79</v>
@@ -16679,7 +16693,7 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16711,10 +16725,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16737,17 +16751,17 @@
         <v>90</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>79</v>
@@ -16760,7 +16774,7 @@
         <v>79</v>
       </c>
       <c r="T122" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="U122" t="s" s="2">
         <v>79</v>
@@ -16796,7 +16810,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16811,16 +16825,16 @@
         <v>101</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>650</v>
+        <v>79</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>296</v>
+        <v>653</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>79</v>
@@ -16828,10 +16842,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16857,14 +16871,14 @@
         <v>109</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>79</v>
@@ -16889,13 +16903,13 @@
         <v>79</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>79</v>
@@ -16913,7 +16927,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -16928,27 +16942,27 @@
         <v>101</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>79</v>
+        <v>663</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>660</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16971,17 +16985,17 @@
         <v>90</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -17030,7 +17044,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17045,27 +17059,27 @@
         <v>101</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>79</v>
+        <v>672</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>669</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17088,17 +17102,17 @@
         <v>79</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>79</v>
@@ -17147,7 +17161,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17165,13 +17179,13 @@
         <v>79</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>675</v>
+        <v>79</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>79</v>
+        <v>679</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>79</v>
@@ -17179,10 +17193,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17205,13 +17219,13 @@
         <v>79</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17262,7 +17276,7 @@
         <v>79</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17277,16 +17291,16 @@
         <v>101</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>681</v>
+        <v>79</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>79</v>
+        <v>686</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>79</v>
@@ -17294,10 +17308,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17320,13 +17334,13 @@
         <v>79</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -17377,7 +17391,7 @@
         <v>79</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17395,10 +17409,10 @@
         <v>79</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>79</v>
@@ -17409,10 +17423,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17441,7 +17455,7 @@
         <v>136</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N128" t="s" s="2">
         <v>138</v>
@@ -17494,7 +17508,7 @@
         <v>79</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17512,10 +17526,10 @@
         <v>79</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>79</v>
@@ -17526,14 +17540,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17555,10 +17569,10 @@
         <v>135</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>138</v>
@@ -17613,7 +17627,7 @@
         <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17631,10 +17645,10 @@
         <v>79</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM129" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>79</v>
@@ -17645,10 +17659,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17674,14 +17688,14 @@
         <v>147</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>79</v>
@@ -17730,7 +17744,7 @@
         <v>79</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -17748,10 +17762,10 @@
         <v>79</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>695</v>
+        <v>79</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>79</v>
+        <v>698</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>79</v>
@@ -17762,10 +17776,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17788,13 +17802,13 @@
         <v>79</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17821,13 +17835,13 @@
         <v>79</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>79</v>
@@ -17845,7 +17859,7 @@
         <v>79</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>89</v>
@@ -17863,13 +17877,13 @@
         <v>79</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>682</v>
+        <v>79</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>79</v>
+        <v>705</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>79</v>
@@ -17877,10 +17891,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17903,17 +17917,17 @@
         <v>79</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>79</v>
@@ -17962,7 +17976,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -17980,13 +17994,13 @@
         <v>79</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>707</v>
+        <v>79</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>79</v>
+        <v>711</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>79</v>
@@ -17994,10 +18008,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18020,13 +18034,13 @@
         <v>79</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -18077,7 +18091,7 @@
         <v>79</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18095,10 +18109,10 @@
         <v>79</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>713</v>
+        <v>79</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>79</v>
+        <v>716</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>79</v>
@@ -18109,10 +18123,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18135,19 +18149,19 @@
         <v>79</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>79</v>
@@ -18196,7 +18210,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18211,19 +18225,19 @@
         <v>101</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>79</v>
+        <v>725</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>722</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4955" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4955" uniqueCount="727">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>Practitioner.identifier</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -3836,7 +3839,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>90</v>
@@ -3848,17 +3851,17 @@
         <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -3895,14 +3898,14 @@
         <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>146</v>
@@ -3923,27 +3926,27 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>146</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -3965,17 +3968,17 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>79</v>
@@ -3985,7 +3988,7 @@
         <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>79</v>
@@ -4033,7 +4036,7 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>101</v>
@@ -4042,13 +4045,13 @@
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
@@ -4056,13 +4059,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>146</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -4072,10 +4075,10 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>79</v>
@@ -4084,17 +4087,17 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -4104,7 +4107,7 @@
         <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>79</v>
@@ -4152,7 +4155,7 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>101</v>
@@ -4161,13 +4164,13 @@
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -4175,10 +4178,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4201,70 +4204,70 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -4285,21 +4288,21 @@
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4322,19 +4325,19 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -4383,7 +4386,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4392,22 +4395,22 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -4415,10 +4418,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4441,13 +4444,13 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4498,7 +4501,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4519,7 +4522,7 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4530,10 +4533,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4562,7 +4565,7 @@
         <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>138</v>
@@ -4603,19 +4606,19 @@
         <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4636,7 +4639,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -4647,10 +4650,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4676,16 +4679,16 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -4710,13 +4713,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -4734,7 +4737,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4752,13 +4755,13 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -4766,10 +4769,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4792,19 +4795,19 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4853,7 +4856,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4871,10 +4874,10 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4885,14 +4888,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4911,16 +4914,16 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4943,7 +4946,7 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>79</v>
@@ -4970,7 +4973,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4985,16 +4988,16 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -5002,10 +5005,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -5028,13 +5031,13 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -5085,7 +5088,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -5117,10 +5120,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5146,10 +5149,10 @@
         <v>135</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5188,17 +5191,17 @@
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5230,13 +5233,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
@@ -5258,13 +5261,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -5315,7 +5318,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5324,13 +5327,13 @@
         <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
@@ -5347,10 +5350,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5373,13 +5376,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5403,7 +5406,7 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>79</v>
@@ -5430,7 +5433,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5462,14 +5465,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5488,16 +5491,16 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5520,7 +5523,7 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>79</v>
@@ -5547,7 +5550,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5562,16 +5565,16 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -5579,10 +5582,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5605,13 +5608,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5662,7 +5665,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5694,10 +5697,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5723,10 +5726,10 @@
         <v>135</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5765,17 +5768,17 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5807,13 +5810,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="C28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>79</v>
@@ -5835,13 +5838,13 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5892,7 +5895,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5901,13 +5904,13 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
@@ -5924,10 +5927,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5950,13 +5953,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5980,7 +5983,7 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="X29" t="s" s="2">
         <v>79</v>
@@ -6007,7 +6010,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -6039,10 +6042,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6065,13 +6068,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -6122,7 +6125,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6137,16 +6140,16 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -6154,10 +6157,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6180,13 +6183,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6237,7 +6240,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6269,10 +6272,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6298,10 +6301,10 @@
         <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6340,17 +6343,17 @@
         <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6382,13 +6385,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="B33" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="C33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>79</v>
@@ -6410,16 +6413,16 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6469,7 +6472,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6490,7 +6493,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6501,10 +6504,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6527,13 +6530,13 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6557,7 +6560,7 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="X34" t="s" s="2">
         <v>79</v>
@@ -6584,7 +6587,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6616,10 +6619,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6642,13 +6645,13 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6699,7 +6702,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6717,10 +6720,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6731,10 +6734,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6757,17 +6760,17 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6816,7 +6819,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6834,13 +6837,13 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6848,10 +6851,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6874,19 +6877,19 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6923,17 +6926,17 @@
         <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6948,16 +6951,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6965,13 +6968,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>79</v>
@@ -6993,19 +6996,19 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -7054,7 +7057,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -7063,22 +7066,22 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -7086,10 +7089,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7112,13 +7115,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7169,7 +7172,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7190,7 +7193,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -7201,10 +7204,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7233,7 +7236,7 @@
         <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>138</v>
@@ -7274,19 +7277,19 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7307,7 +7310,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7318,10 +7321,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7347,10 +7350,10 @@
         <v>109</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7359,7 +7362,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>79</v>
@@ -7377,13 +7380,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -7401,7 +7404,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7410,22 +7413,22 @@
         <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7433,10 +7436,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7459,19 +7462,19 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7484,7 +7487,7 @@
         <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>79</v>
@@ -7493,7 +7496,7 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X42" t="s" s="2">
         <v>79</v>
@@ -7520,7 +7523,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7535,16 +7538,16 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7552,10 +7555,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7581,16 +7584,16 @@
         <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7615,13 +7618,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -7639,7 +7642,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7654,16 +7657,16 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7671,10 +7674,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7697,13 +7700,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7754,7 +7757,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7786,10 +7789,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7815,10 +7818,10 @@
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7857,17 +7860,17 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7899,13 +7902,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="B46" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="C46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>79</v>
@@ -7927,13 +7930,13 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7984,7 +7987,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7993,13 +7996,13 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
@@ -8016,10 +8019,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8042,13 +8045,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8099,7 +8102,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8131,10 +8134,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8157,16 +8160,16 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8216,7 +8219,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8234,10 +8237,10 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8248,10 +8251,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8274,13 +8277,13 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8331,7 +8334,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8346,16 +8349,16 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8363,10 +8366,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8389,13 +8392,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8446,7 +8449,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8467,7 +8470,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8478,10 +8481,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8510,7 +8513,7 @@
         <v>136</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>138</v>
@@ -8551,19 +8554,19 @@
         <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8584,7 +8587,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8595,10 +8598,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8621,16 +8624,16 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8680,7 +8683,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8689,19 +8692,19 @@
         <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8712,10 +8715,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8738,23 +8741,23 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8799,7 +8802,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8808,19 +8811,19 @@
         <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8831,13 +8834,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>79</v>
@@ -8859,19 +8862,19 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8920,7 +8923,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8929,22 +8932,22 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8952,10 +8955,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8978,13 +8981,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9035,7 +9038,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9056,7 +9059,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -9067,10 +9070,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9099,7 +9102,7 @@
         <v>136</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>138</v>
@@ -9140,19 +9143,19 @@
         <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9173,7 +9176,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -9184,10 +9187,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9213,10 +9216,10 @@
         <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9225,7 +9228,7 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>79</v>
@@ -9243,13 +9246,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -9267,7 +9270,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9276,22 +9279,22 @@
         <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -9299,10 +9302,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9325,19 +9328,19 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9350,7 +9353,7 @@
         <v>79</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>79</v>
@@ -9359,7 +9362,7 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="X58" t="s" s="2">
         <v>79</v>
@@ -9386,7 +9389,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9401,16 +9404,16 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -9418,10 +9421,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9447,16 +9450,16 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9481,13 +9484,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9505,7 +9508,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9520,16 +9523,16 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -9537,10 +9540,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9563,13 +9566,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9620,7 +9623,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9652,10 +9655,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9681,10 +9684,10 @@
         <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9723,17 +9726,17 @@
         <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9765,13 +9768,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>79</v>
@@ -9793,13 +9796,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9850,7 +9853,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9859,13 +9862,13 @@
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
@@ -9882,10 +9885,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9908,13 +9911,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9965,7 +9968,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9997,10 +10000,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10023,16 +10026,16 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10082,7 +10085,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10100,10 +10103,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -10114,10 +10117,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10140,13 +10143,13 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10197,7 +10200,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10212,16 +10215,16 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -10229,10 +10232,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10255,13 +10258,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10312,7 +10315,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10333,7 +10336,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10344,10 +10347,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10376,7 +10379,7 @@
         <v>136</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>138</v>
@@ -10417,19 +10420,19 @@
         <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10450,7 +10453,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10461,10 +10464,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10487,16 +10490,16 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10546,7 +10549,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10555,19 +10558,19 @@
         <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10578,10 +10581,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10604,23 +10607,23 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R69" t="s" s="2">
         <v>79</v>
@@ -10665,7 +10668,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10674,19 +10677,19 @@
         <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10697,13 +10700,13 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>79</v>
@@ -10725,19 +10728,19 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10786,7 +10789,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10795,22 +10798,22 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10818,10 +10821,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10844,19 +10847,19 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10905,7 +10908,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10914,22 +10917,22 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10937,10 +10940,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10963,13 +10966,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11020,7 +11023,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11041,7 +11044,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -11052,10 +11055,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11084,7 +11087,7 @@
         <v>136</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>138</v>
@@ -11125,19 +11128,19 @@
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11158,7 +11161,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -11169,10 +11172,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11198,16 +11201,16 @@
         <v>109</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11220,7 +11223,7 @@
         <v>79</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>79</v>
@@ -11232,13 +11235,13 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -11256,7 +11259,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11274,13 +11277,13 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11288,10 +11291,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11317,13 +11320,13 @@
         <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11337,7 +11340,7 @@
         <v>79</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>79</v>
@@ -11349,13 +11352,13 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>
@@ -11373,7 +11376,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11391,10 +11394,10 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11405,10 +11408,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11431,19 +11434,19 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11456,7 +11459,7 @@
         <v>79</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>79</v>
@@ -11492,7 +11495,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11510,10 +11513,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11524,10 +11527,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11550,13 +11553,13 @@
         <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11571,7 +11574,7 @@
         <v>79</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>79</v>
@@ -11607,7 +11610,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11625,13 +11628,13 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11639,10 +11642,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11665,13 +11668,13 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11722,7 +11725,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11754,10 +11757,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11783,10 +11786,10 @@
         <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11825,17 +11828,17 @@
         <v>79</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AC79" s="2"/>
       <c r="AD79" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11867,13 +11870,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>79</v>
@@ -11895,13 +11898,13 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11952,7 +11955,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11961,13 +11964,13 @@
         <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
@@ -11984,10 +11987,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12010,13 +12013,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12067,7 +12070,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12088,7 +12091,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -12099,10 +12102,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12128,10 +12131,10 @@
         <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12170,19 +12173,19 @@
         <v>79</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12214,10 +12217,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12243,13 +12246,13 @@
         <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12257,7 +12260,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>79</v>
@@ -12299,7 +12302,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>89</v>
@@ -12331,10 +12334,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12360,10 +12363,10 @@
         <v>109</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12402,17 +12405,17 @@
         <v>79</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AC84" s="2"/>
       <c r="AD84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12444,13 +12447,13 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>79</v>
@@ -12475,10 +12478,10 @@
         <v>109</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12487,7 +12490,7 @@
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>79</v>
@@ -12505,13 +12508,13 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12529,7 +12532,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12561,13 +12564,13 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>79</v>
@@ -12589,13 +12592,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12646,7 +12649,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12655,13 +12658,13 @@
         <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>79</v>
@@ -12678,10 +12681,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12704,13 +12707,13 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12761,7 +12764,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12782,7 +12785,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12793,10 +12796,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12822,10 +12825,10 @@
         <v>135</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12864,19 +12867,19 @@
         <v>79</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12908,10 +12911,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12937,13 +12940,13 @@
         <v>103</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12951,7 +12954,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>79</v>
@@ -12993,7 +12996,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>89</v>
@@ -13025,10 +13028,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13054,10 +13057,10 @@
         <v>109</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13096,17 +13099,17 @@
         <v>79</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AC90" s="2"/>
       <c r="AD90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13138,13 +13141,13 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>79</v>
@@ -13169,10 +13172,10 @@
         <v>109</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13181,7 +13184,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>79</v>
@@ -13199,13 +13202,13 @@
         <v>79</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>79</v>
@@ -13223,7 +13226,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13255,13 +13258,13 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>79</v>
@@ -13283,13 +13286,13 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13340,7 +13343,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13349,13 +13352,13 @@
         <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>79</v>
@@ -13372,10 +13375,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13398,13 +13401,13 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13455,7 +13458,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13476,7 +13479,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13487,10 +13490,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13516,10 +13519,10 @@
         <v>135</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13558,19 +13561,19 @@
         <v>79</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13602,10 +13605,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13631,13 +13634,13 @@
         <v>103</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13645,7 +13648,7 @@
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>79</v>
@@ -13687,7 +13690,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>89</v>
@@ -13719,10 +13722,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13748,10 +13751,10 @@
         <v>109</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13790,17 +13793,17 @@
         <v>79</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AC96" s="2"/>
       <c r="AD96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13832,13 +13835,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>79</v>
@@ -13863,10 +13866,10 @@
         <v>109</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13875,7 +13878,7 @@
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>79</v>
@@ -13893,13 +13896,13 @@
         <v>79</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>79</v>
@@ -13917,7 +13920,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13949,13 +13952,13 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>79</v>
@@ -13977,13 +13980,13 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14034,7 +14037,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14049,13 +14052,13 @@
         <v>140</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -14066,13 +14069,13 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>79</v>
@@ -14094,13 +14097,13 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14151,7 +14154,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14166,13 +14169,13 @@
         <v>140</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -14183,13 +14186,13 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>79</v>
@@ -14211,13 +14214,13 @@
         <v>79</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14268,7 +14271,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14283,13 +14286,13 @@
         <v>140</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -14300,13 +14303,13 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>79</v>
@@ -14328,13 +14331,13 @@
         <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14385,7 +14388,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14394,13 +14397,13 @@
         <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>79</v>
@@ -14417,10 +14420,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14443,13 +14446,13 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14500,7 +14503,7 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14521,7 +14524,7 @@
         <v>79</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14532,10 +14535,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14561,10 +14564,10 @@
         <v>135</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14603,19 +14606,19 @@
         <v>79</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14647,10 +14650,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14676,13 +14679,13 @@
         <v>103</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14690,7 +14693,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>79</v>
@@ -14732,7 +14735,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>89</v>
@@ -14764,10 +14767,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14793,10 +14796,10 @@
         <v>109</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14835,17 +14838,17 @@
         <v>79</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AC105" s="2"/>
       <c r="AD105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14877,13 +14880,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>79</v>
@@ -14908,10 +14911,10 @@
         <v>109</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14920,7 +14923,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>79</v>
@@ -14938,13 +14941,13 @@
         <v>79</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>79</v>
@@ -14962,7 +14965,7 @@
         <v>79</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -14994,13 +14997,13 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>79</v>
@@ -15022,13 +15025,13 @@
         <v>79</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15079,7 +15082,7 @@
         <v>79</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15094,13 +15097,13 @@
         <v>140</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15111,10 +15114,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15137,13 +15140,13 @@
         <v>79</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15167,7 +15170,7 @@
         <v>79</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="X108" t="s" s="2">
         <v>79</v>
@@ -15194,7 +15197,7 @@
         <v>79</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15226,14 +15229,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15252,13 +15255,13 @@
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15273,7 +15276,7 @@
         <v>79</v>
       </c>
       <c r="T109" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="U109" t="s" s="2">
         <v>79</v>
@@ -15309,7 +15312,7 @@
         <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15324,16 +15327,16 @@
         <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>79</v>
@@ -15341,10 +15344,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15367,13 +15370,13 @@
         <v>79</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15424,7 +15427,7 @@
         <v>79</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15456,10 +15459,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15485,10 +15488,10 @@
         <v>135</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15527,17 +15530,17 @@
         <v>79</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC111" s="2"/>
       <c r="AD111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15569,13 +15572,13 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B112" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="B112" t="s" s="2">
-        <v>591</v>
-      </c>
       <c r="C112" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>79</v>
@@ -15597,13 +15600,13 @@
         <v>79</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15654,7 +15657,7 @@
         <v>79</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15663,7 +15666,7 @@
         <v>81</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>140</v>
@@ -15686,10 +15689,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15712,13 +15715,13 @@
         <v>79</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15742,7 +15745,7 @@
         <v>79</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>79</v>
@@ -15769,7 +15772,7 @@
         <v>79</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15801,14 +15804,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15827,16 +15830,16 @@
         <v>90</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15850,7 +15853,7 @@
         <v>79</v>
       </c>
       <c r="T114" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="U114" t="s" s="2">
         <v>79</v>
@@ -15886,7 +15889,7 @@
         <v>79</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -15901,13 +15904,13 @@
         <v>101</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -15918,14 +15921,14 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -15944,13 +15947,13 @@
         <v>90</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15977,13 +15980,13 @@
         <v>79</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>79</v>
@@ -16001,7 +16004,7 @@
         <v>79</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16016,16 +16019,16 @@
         <v>101</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>79</v>
@@ -16033,14 +16036,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16059,13 +16062,13 @@
         <v>90</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16080,7 +16083,7 @@
         <v>79</v>
       </c>
       <c r="T116" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="U116" t="s" s="2">
         <v>79</v>
@@ -16116,7 +16119,7 @@
         <v>79</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16131,16 +16134,16 @@
         <v>101</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>79</v>
@@ -16148,10 +16151,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16174,16 +16177,16 @@
         <v>90</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16233,7 +16236,7 @@
         <v>79</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16248,16 +16251,16 @@
         <v>101</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>79</v>
@@ -16265,10 +16268,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16291,13 +16294,13 @@
         <v>79</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -16348,7 +16351,7 @@
         <v>79</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16380,10 +16383,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16409,10 +16412,10 @@
         <v>135</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16451,17 +16454,17 @@
         <v>79</v>
       </c>
       <c r="AB119" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC119" s="2"/>
       <c r="AD119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16493,13 +16496,13 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B120" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="B120" t="s" s="2">
-        <v>638</v>
-      </c>
       <c r="C120" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>79</v>
@@ -16521,13 +16524,13 @@
         <v>79</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16578,7 +16581,7 @@
         <v>79</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16587,10 +16590,10 @@
         <v>81</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>79</v>
@@ -16599,7 +16602,7 @@
         <v>79</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16610,10 +16613,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16636,13 +16639,13 @@
         <v>79</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -16666,7 +16669,7 @@
         <v>79</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="X121" t="s" s="2">
         <v>79</v>
@@ -16693,7 +16696,7 @@
         <v>79</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16725,10 +16728,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16751,17 +16754,17 @@
         <v>90</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>79</v>
@@ -16774,7 +16777,7 @@
         <v>79</v>
       </c>
       <c r="T122" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="U122" t="s" s="2">
         <v>79</v>
@@ -16810,7 +16813,7 @@
         <v>79</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16828,13 +16831,13 @@
         <v>79</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>79</v>
@@ -16842,10 +16845,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16871,14 +16874,14 @@
         <v>109</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>79</v>
@@ -16903,13 +16906,13 @@
         <v>79</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>79</v>
@@ -16927,7 +16930,7 @@
         <v>79</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -16942,16 +16945,16 @@
         <v>101</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>79</v>
@@ -16959,10 +16962,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16985,17 +16988,17 @@
         <v>90</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>79</v>
@@ -17044,7 +17047,7 @@
         <v>79</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17059,16 +17062,16 @@
         <v>101</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>79</v>
@@ -17076,10 +17079,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17102,17 +17105,17 @@
         <v>79</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>79</v>
@@ -17161,7 +17164,7 @@
         <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17182,10 +17185,10 @@
         <v>79</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>79</v>
@@ -17193,10 +17196,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17219,13 +17222,13 @@
         <v>79</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17276,7 +17279,7 @@
         <v>79</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -17294,13 +17297,13 @@
         <v>79</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>79</v>
@@ -17308,10 +17311,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17334,13 +17337,13 @@
         <v>79</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -17391,7 +17394,7 @@
         <v>79</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -17412,7 +17415,7 @@
         <v>79</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>79</v>
@@ -17423,10 +17426,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17455,7 +17458,7 @@
         <v>136</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N128" t="s" s="2">
         <v>138</v>
@@ -17508,7 +17511,7 @@
         <v>79</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -17529,7 +17532,7 @@
         <v>79</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>79</v>
@@ -17540,14 +17543,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17569,10 +17572,10 @@
         <v>135</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>138</v>
@@ -17627,7 +17630,7 @@
         <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -17659,10 +17662,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17685,17 +17688,17 @@
         <v>79</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>79</v>
@@ -17744,7 +17747,7 @@
         <v>79</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -17765,7 +17768,7 @@
         <v>79</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>79</v>
@@ -17776,10 +17779,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17802,13 +17805,13 @@
         <v>79</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17835,13 +17838,13 @@
         <v>79</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>79</v>
@@ -17859,7 +17862,7 @@
         <v>79</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>89</v>
@@ -17880,10 +17883,10 @@
         <v>79</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>79</v>
@@ -17891,10 +17894,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17917,17 +17920,17 @@
         <v>79</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>79</v>
@@ -17976,7 +17979,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -17997,10 +18000,10 @@
         <v>79</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>79</v>
@@ -18008,10 +18011,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18034,13 +18037,13 @@
         <v>79</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -18091,7 +18094,7 @@
         <v>79</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -18112,7 +18115,7 @@
         <v>79</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>79</v>
@@ -18123,10 +18126,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18149,19 +18152,19 @@
         <v>79</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>79</v>
@@ -18210,7 +18213,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -18225,16 +18228,16 @@
         <v>101</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>79</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3994,7 +3994,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>158</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>164</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>220</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>254</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>317</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>413</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>466</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>598</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>636</v>
       </c>
@@ -20280,12 +20280,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO151">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-practitioner-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
